--- a/src/data/SR.xlsx
+++ b/src/data/SR.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KPI\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE224DC-B823-4632-861B-E68CF927B54C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C1F67C-40AB-4A13-9171-0AD1F7A5D956}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SalesRep" sheetId="1" r:id="rId1"/>
+    <sheet name="SRCkienti" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Nume</t>
   </si>
@@ -43,6 +44,30 @@
   </si>
   <si>
     <t>Marcov</t>
+  </si>
+  <si>
+    <t>Nadia Marcov</t>
+  </si>
+  <si>
+    <t>Mihai Ardoare</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Tropsanu SRL</t>
+  </si>
+  <si>
+    <t>Miraflos SA</t>
+  </si>
+  <si>
+    <t>Halbag SRL</t>
+  </si>
+  <si>
+    <t>Primus SA</t>
   </si>
 </sst>
 </file>
@@ -371,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -405,4 +430,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485CE23B-C117-4C32-97EC-DB9583F22754}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="12.06640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>